--- a/medicine/Enfance/Jaime_Collyer/Jaime_Collyer.xlsx
+++ b/medicine/Enfance/Jaime_Collyer/Jaime_Collyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jaime Collyer, né le 1er janvier 1955 à Santiago, est un écrivain et professeur chilien. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,19 +553,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Los años perdidos (1986)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Los años perdidos (1986)
 El infiltrado (1989) Publié en français sous le titre El infiltrado, Paris, Gallimard, coll. « Série noire » no 2633, 2001  (ISBN 2-07-073731-4)
 Cien pájaros volando (1995)
 El habitante del cielo (2002)
-La fidelidad presunta de las partes (2009)
-Recueils de nouvelles
-Gente al acecho (1998)
+La fidelidad presunta de las partes (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jaime_Collyer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jaime_Collyer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gente al acecho (1998)
 La bestia en casa (1998)
 Cuentos privados (2002)
-La voz del amo (2005)
-Littérature d'enfance et de jeunesse
-Hacia el nuevo mundo (1986)</t>
+La voz del amo (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jaime_Collyer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jaime_Collyer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hacia el nuevo mundo (1986)</t>
         </is>
       </c>
     </row>
